--- a/Data/Keka_TestData.xlsx
+++ b/Data/Keka_TestData.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">anshita.mathur@knoldus.com</t>
   </si>
   <si>
-    <t xml:space="preserve">anshita$31</t>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">Regularize today's attendance</t>
@@ -217,10 +217,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
   </cols>
